--- a/templates/AutomationOrg/RSTK-9717-WO To Inspection order To WO Receipt flow.xlsx
+++ b/templates/AutomationOrg/RSTK-9717-WO To Inspection order To WO Receipt flow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81787B1F-89D2-4E6F-9614-483434FB0B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C3A18-E7E9-4838-B8B9-DF155B710D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
   <si>
     <t>Site</t>
   </si>
@@ -306,9 +306,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm\/dd\/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -358,13 +357,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD1048576"/>
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,24 +712,6 @@
         <v>43</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1113,10 +1093,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,18 +1168,20 @@
       <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5"/>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -1212,20 +1194,17 @@
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E3">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
@@ -1236,18 +1215,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="b">
+        <v>25</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="N4" t="s">
@@ -1261,18 +1241,20 @@
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5"/>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
       </c>
       <c r="N5" t="s">
         <v>22</v>
@@ -1285,48 +1267,22 @@
       <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1393,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,14 +1405,14 @@
       <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
         <v>39</v>
@@ -1470,16 +1426,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
@@ -1492,36 +1448,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E7" s="4"/>
+      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/AutomationOrg/RSTK-9717-WO To Inspection order To WO Receipt flow.xlsx
+++ b/templates/AutomationOrg/RSTK-9717-WO To Inspection order To WO Receipt flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C3A18-E7E9-4838-B8B9-DF155B710D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF049361-01DD-4221-BC1B-0E0D6FC70DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
   <si>
     <t>Site</t>
   </si>
@@ -646,7 +646,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2A1B91-56DD-426E-9DD2-5161A872099F}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,10 +1093,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,18 +1192,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D3" s="4"/>
       <c r="E3">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="b">
+        <v>25</v>
+      </c>
+      <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
@@ -1220,15 +1221,17 @@
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4"/>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -1248,41 +1251,15 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
       </c>
       <c r="N5" t="s">
         <v>22</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
         <v>23</v>
       </c>
     </row>
